--- a/ecuacion-util-poi/src/test/resources/ExcelWriteUtilTest.xlsx
+++ b/ecuacion-util-poi/src/test/resources/ExcelWriteUtilTest.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yosuke.tanaka/Desktop/development/git/ecuacion-utils/ecuacion-util-poi/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA97092B-92BC-3A45-AF3E-DBF670A5D79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2736DD-04AC-8E48-A5A1-BB639C13685C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16640" xr2:uid="{2468A711-9CE9-774B-B2CD-5C8D199E7A03}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16640" activeTab="1" xr2:uid="{2468A711-9CE9-774B-B2CD-5C8D199E7A03}"/>
   </bookViews>
   <sheets>
     <sheet name="getReadyToEvaluateFormulaTest" sheetId="4" r:id="rId1"/>
+    <sheet name="evaluateFormulaTest" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,8 +36,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>2025/01/01</t>
   </si>
@@ -63,13 +86,34 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>Various Erors</t>
+  </si>
+  <si>
+    <t>target cell</t>
+  </si>
+  <si>
+    <t>calculations</t>
+  </si>
+  <si>
+    <t>FormulaParseException</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>test case</t>
+  </si>
+  <si>
+    <t>"#NAME?"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -78,16 +122,36 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -95,13 +159,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -109,6 +225,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -463,9 +600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{268634EC-2566-054A-98B3-E377E2859BF4}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -547,4 +682,206 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153B0654-1773-4243-B53A-EF430D1982C1}">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3" t="e" cm="1">
+        <f t="array" ref="B4">vlooku</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ecuacion-util-poi/src/test/resources/ExcelWriteUtilTest.xlsx
+++ b/ecuacion-util-poi/src/test/resources/ExcelWriteUtilTest.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yosuke.tanaka/Desktop/development/git/ecuacion-utils/ecuacion-util-poi/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2736DD-04AC-8E48-A5A1-BB639C13685C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6438A6E-0FFA-5340-BBEE-F3D5F63D0EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16640" activeTab="1" xr2:uid="{2468A711-9CE9-774B-B2CD-5C8D199E7A03}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="16640" activeTab="1" xr2:uid="{2468A711-9CE9-774B-B2CD-5C8D199E7A03}"/>
   </bookViews>
   <sheets>
     <sheet name="getReadyToEvaluateFormulaTest" sheetId="4" r:id="rId1"/>
     <sheet name="evaluateFormulaTest" sheetId="5" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -59,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>2025/01/01</t>
   </si>
@@ -94,9 +97,6 @@
     <t>target cell</t>
   </si>
   <si>
-    <t>calculations</t>
-  </si>
-  <si>
     <t>FormulaParseException</t>
   </si>
   <si>
@@ -107,6 +107,42 @@
   </si>
   <si>
     <t>"#NAME?"</t>
+  </si>
+  <si>
+    <t>UnimpementedFunction Function</t>
+  </si>
+  <si>
+    <t>an unimplemented function</t>
+  </si>
+  <si>
+    <t>"#REF!"</t>
+  </si>
+  <si>
+    <t>WorkbookNotFoundException</t>
+  </si>
+  <si>
+    <t>Other error</t>
+  </si>
+  <si>
+    <t>ClassCastException</t>
+  </si>
+  <si>
+    <t>あ</t>
+  </si>
+  <si>
+    <t>"#VALUE!"</t>
+  </si>
+  <si>
+    <t>(No Exception)</t>
+  </si>
+  <si>
+    <t>"#DIV/0!"</t>
+  </si>
+  <si>
+    <t>"#N/A"</t>
+  </si>
+  <si>
+    <t>values for calculation</t>
   </si>
 </sst>
 </file>
@@ -217,7 +253,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -230,10 +266,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -244,9 +280,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -267,6 +300,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Summary"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -689,13 +735,13 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -704,81 +750,132 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>13</v>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="str" cm="1">
+        <f t="array" ref="B4">_xlfn.TEXTSPLIT(D4,",")</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="3" t="e" cm="1">
-        <f t="array" ref="B4">vlooku</f>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3" t="e" cm="1">
+        <f t="array" ref="B5">vlooku</f>
         <v>#NAME?</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3" t="e">
+        <f>[1]Summary!$A$1</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="A7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="3" t="e">
+        <f>D7/2</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="3" t="e">
+        <f>1/D8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="A9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="3" t="e">
+        <f>VLOOKUP("abc",H3:I6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="3" t="e" cm="1">
+        <f t="array" ref="B10">_xlfn.IFS(D10,"A",TRUE,"B")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="3" t="e">
+        <f>VLOOKUP("abc",H3:I6,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
